--- a/biology/Zoologie/Ephalmator/Ephalmator.xlsx
+++ b/biology/Zoologie/Ephalmator/Ephalmator.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ephalmatoridae
 Ephalmator est un  genre fossile d'araignées aranéomorphes, le seul de la famille des Ephalmatoridae.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre ont été découvertes dans de l'ambre de la mer Baltique et de Bitterfeld en Saxe-Anhalt en Allemagne. Elles datent du Paléogène[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre ont été découvertes dans de l'ambre de la mer Baltique et de Bitterfeld en Saxe-Anhalt en Allemagne. Elles datent du Paléogène.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The World Spider Catalog 17.0[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The World Spider Catalog 17.0 :
 †Ephalmator bitterfeldensis Wunderlich, 2004
 †Ephalmator calidus Wunderlich, 2004
 †Ephalmator debilis Wunderlich, 2004
@@ -586,7 +602,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Petrunkevitch, 1950 : Baltic amber spiders in the Museum of Comparative Zoology. Bulletin of the Museum of Comparative Zoology, vol. 103, p. 257–337.</t>
         </is>
